--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efna1-Epha7.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efna1-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,991 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.3836423893978</v>
+        <v>18.33198466666667</v>
       </c>
       <c r="H2">
-        <v>15.3836423893978</v>
+        <v>54.995954</v>
       </c>
       <c r="I2">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004506</v>
       </c>
       <c r="J2">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004505</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.710880571129799</v>
+        <v>0.03932533333333333</v>
       </c>
       <c r="N2">
-        <v>0.710880571129799</v>
+        <v>0.117976</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.03588667238536742</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.03588667238536743</v>
       </c>
       <c r="Q2">
-        <v>10.93593248783169</v>
+        <v>0.7209114076782221</v>
       </c>
       <c r="R2">
-        <v>10.93593248783169</v>
+        <v>6.488202669104</v>
       </c>
       <c r="S2">
-        <v>0.8808402222010899</v>
+        <v>0.03169466095901527</v>
       </c>
       <c r="T2">
-        <v>0.8808402222010899</v>
+        <v>0.03169466095901527</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.27957900527732</v>
+        <v>18.33198466666667</v>
       </c>
       <c r="H3">
-        <v>1.27957900527732</v>
+        <v>54.995954</v>
       </c>
       <c r="I3">
-        <v>0.07326643630959009</v>
+        <v>0.8831875137004506</v>
       </c>
       <c r="J3">
-        <v>0.07326643630959009</v>
+        <v>0.8831875137004505</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.710880571129799</v>
+        <v>0.242411</v>
       </c>
       <c r="N3">
-        <v>0.710880571129799</v>
+        <v>0.727233</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.2212142505155957</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.2212142505155957</v>
       </c>
       <c r="Q3">
-        <v>0.9096278540772412</v>
+        <v>4.443874735031334</v>
       </c>
       <c r="R3">
-        <v>0.9096278540772412</v>
+        <v>39.994872615282</v>
       </c>
       <c r="S3">
-        <v>0.07326643630959009</v>
+        <v>0.1953736639079775</v>
       </c>
       <c r="T3">
-        <v>0.07326643630959009</v>
+        <v>0.1953736639079775</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.801515116739338</v>
+        <v>18.33198466666667</v>
       </c>
       <c r="H4">
-        <v>0.801515116739338</v>
+        <v>54.995954</v>
       </c>
       <c r="I4">
-        <v>0.04589334148931994</v>
+        <v>0.8831875137004506</v>
       </c>
       <c r="J4">
-        <v>0.04589334148931994</v>
+        <v>0.8831875137004505</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.710880571129799</v>
+        <v>0.07026666666666666</v>
       </c>
       <c r="N4">
-        <v>0.710880571129799</v>
+        <v>0.2108</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.06412245320095149</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.06412245320095149</v>
       </c>
       <c r="Q4">
-        <v>0.569781523956828</v>
+        <v>1.288127455911111</v>
       </c>
       <c r="R4">
-        <v>0.569781523956828</v>
+        <v>11.5931471032</v>
       </c>
       <c r="S4">
-        <v>0.04589334148931994</v>
+        <v>0.05663215001492184</v>
       </c>
       <c r="T4">
-        <v>0.04589334148931994</v>
+        <v>0.05663215001492183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>18.33198466666667</v>
+      </c>
+      <c r="H5">
+        <v>54.995954</v>
+      </c>
+      <c r="I5">
+        <v>0.8831875137004506</v>
+      </c>
+      <c r="J5">
+        <v>0.8831875137004505</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.743817</v>
+      </c>
+      <c r="N5">
+        <v>2.231451</v>
+      </c>
+      <c r="O5">
+        <v>0.6787766238980854</v>
+      </c>
+      <c r="P5">
+        <v>0.6787766238980855</v>
+      </c>
+      <c r="Q5">
+        <v>13.635641838806</v>
+      </c>
+      <c r="R5">
+        <v>122.720776549254</v>
+      </c>
+      <c r="S5">
+        <v>0.5994870388185358</v>
+      </c>
+      <c r="T5">
+        <v>0.5994870388185358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.394651</v>
+      </c>
+      <c r="H6">
+        <v>4.183953000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.06719067092662021</v>
+      </c>
+      <c r="J6">
+        <v>0.06719067092662019</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.03932533333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.117976</v>
+      </c>
+      <c r="O6">
+        <v>0.03588667238536742</v>
+      </c>
+      <c r="P6">
+        <v>0.03588667238536743</v>
+      </c>
+      <c r="Q6">
+        <v>0.05484511545866667</v>
+      </c>
+      <c r="R6">
+        <v>0.4936060391280001</v>
+      </c>
+      <c r="S6">
+        <v>0.002411249594896651</v>
+      </c>
+      <c r="T6">
+        <v>0.002411249594896651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.394651</v>
+      </c>
+      <c r="H7">
+        <v>4.183953000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.06719067092662021</v>
+      </c>
+      <c r="J7">
+        <v>0.06719067092662019</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.242411</v>
+      </c>
+      <c r="N7">
+        <v>0.727233</v>
+      </c>
+      <c r="O7">
+        <v>0.2212142505155957</v>
+      </c>
+      <c r="P7">
+        <v>0.2212142505155957</v>
+      </c>
+      <c r="Q7">
+        <v>0.3380787435610001</v>
+      </c>
+      <c r="R7">
+        <v>3.042708692049001</v>
+      </c>
+      <c r="S7">
+        <v>0.01486353391067231</v>
+      </c>
+      <c r="T7">
+        <v>0.01486353391067231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.394651</v>
+      </c>
+      <c r="H8">
+        <v>4.183953000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.06719067092662021</v>
+      </c>
+      <c r="J8">
+        <v>0.06719067092662019</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.07026666666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.2108</v>
+      </c>
+      <c r="O8">
+        <v>0.06412245320095149</v>
+      </c>
+      <c r="P8">
+        <v>0.06412245320095149</v>
+      </c>
+      <c r="Q8">
+        <v>0.09799747693333334</v>
+      </c>
+      <c r="R8">
+        <v>0.8819772924000001</v>
+      </c>
+      <c r="S8">
+        <v>0.004308430652032736</v>
+      </c>
+      <c r="T8">
+        <v>0.004308430652032735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.394651</v>
+      </c>
+      <c r="H9">
+        <v>4.183953000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.06719067092662021</v>
+      </c>
+      <c r="J9">
+        <v>0.06719067092662019</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.743817</v>
+      </c>
+      <c r="N9">
+        <v>2.231451</v>
+      </c>
+      <c r="O9">
+        <v>0.6787766238980854</v>
+      </c>
+      <c r="P9">
+        <v>0.6787766238980855</v>
+      </c>
+      <c r="Q9">
+        <v>1.037365122867</v>
+      </c>
+      <c r="R9">
+        <v>9.336286105803001</v>
+      </c>
+      <c r="S9">
+        <v>0.0456074567690185</v>
+      </c>
+      <c r="T9">
+        <v>0.0456074567690185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.03741866666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.112256</v>
+      </c>
+      <c r="I10">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="J10">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.03932533333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.117976</v>
+      </c>
+      <c r="O10">
+        <v>0.03588667238536742</v>
+      </c>
+      <c r="P10">
+        <v>0.03588667238536743</v>
+      </c>
+      <c r="Q10">
+        <v>0.001471501539555555</v>
+      </c>
+      <c r="R10">
+        <v>0.013243513856</v>
+      </c>
+      <c r="S10">
+        <v>6.469413841998664E-05</v>
+      </c>
+      <c r="T10">
+        <v>6.469413841998664E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.03741866666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.112256</v>
+      </c>
+      <c r="I11">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="J11">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.242411</v>
+      </c>
+      <c r="N11">
+        <v>0.727233</v>
+      </c>
+      <c r="O11">
+        <v>0.2212142505155957</v>
+      </c>
+      <c r="P11">
+        <v>0.2212142505155957</v>
+      </c>
+      <c r="Q11">
+        <v>0.009070696405333332</v>
+      </c>
+      <c r="R11">
+        <v>0.081636267648</v>
+      </c>
+      <c r="S11">
+        <v>0.0003987905367666488</v>
+      </c>
+      <c r="T11">
+        <v>0.0003987905367666488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.03741866666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.112256</v>
+      </c>
+      <c r="I12">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="J12">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.07026666666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.2108</v>
+      </c>
+      <c r="O12">
+        <v>0.06412245320095149</v>
+      </c>
+      <c r="P12">
+        <v>0.06412245320095149</v>
+      </c>
+      <c r="Q12">
+        <v>0.002629284977777777</v>
+      </c>
+      <c r="R12">
+        <v>0.0236635648</v>
+      </c>
+      <c r="S12">
+        <v>0.0001155957514997388</v>
+      </c>
+      <c r="T12">
+        <v>0.0001155957514997388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.03741866666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.112256</v>
+      </c>
+      <c r="I13">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="J13">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.743817</v>
+      </c>
+      <c r="N13">
+        <v>2.231451</v>
+      </c>
+      <c r="O13">
+        <v>0.6787766238980854</v>
+      </c>
+      <c r="P13">
+        <v>0.6787766238980855</v>
+      </c>
+      <c r="Q13">
+        <v>0.02783264038399999</v>
+      </c>
+      <c r="R13">
+        <v>0.250493763456</v>
+      </c>
+      <c r="S13">
+        <v>0.001223653962428101</v>
+      </c>
+      <c r="T13">
+        <v>0.001223653962428101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9925623333333333</v>
+      </c>
+      <c r="H14">
+        <v>2.977687</v>
+      </c>
+      <c r="I14">
+        <v>0.0478190809838148</v>
+      </c>
+      <c r="J14">
+        <v>0.04781908098381479</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.03932533333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.117976</v>
+      </c>
+      <c r="O14">
+        <v>0.03588667238536742</v>
+      </c>
+      <c r="P14">
+        <v>0.03588667238536743</v>
+      </c>
+      <c r="Q14">
+        <v>0.03903284461244444</v>
+      </c>
+      <c r="R14">
+        <v>0.351295601512</v>
+      </c>
+      <c r="S14">
+        <v>0.001716067693035515</v>
+      </c>
+      <c r="T14">
+        <v>0.001716067693035515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.9925623333333333</v>
+      </c>
+      <c r="H15">
+        <v>2.977687</v>
+      </c>
+      <c r="I15">
+        <v>0.0478190809838148</v>
+      </c>
+      <c r="J15">
+        <v>0.04781908098381479</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.242411</v>
+      </c>
+      <c r="N15">
+        <v>0.727233</v>
+      </c>
+      <c r="O15">
+        <v>0.2212142505155957</v>
+      </c>
+      <c r="P15">
+        <v>0.2212142505155957</v>
+      </c>
+      <c r="Q15">
+        <v>0.2406080277856667</v>
+      </c>
+      <c r="R15">
+        <v>2.165472250071</v>
+      </c>
+      <c r="S15">
+        <v>0.01057826216017916</v>
+      </c>
+      <c r="T15">
+        <v>0.01057826216017916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9925623333333333</v>
+      </c>
+      <c r="H16">
+        <v>2.977687</v>
+      </c>
+      <c r="I16">
+        <v>0.0478190809838148</v>
+      </c>
+      <c r="J16">
+        <v>0.04781908098381479</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.07026666666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.2108</v>
+      </c>
+      <c r="O16">
+        <v>0.06412245320095149</v>
+      </c>
+      <c r="P16">
+        <v>0.06412245320095149</v>
+      </c>
+      <c r="Q16">
+        <v>0.06974404662222221</v>
+      </c>
+      <c r="R16">
+        <v>0.6276964196</v>
+      </c>
+      <c r="S16">
+        <v>0.003066276782497174</v>
+      </c>
+      <c r="T16">
+        <v>0.003066276782497173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9925623333333333</v>
+      </c>
+      <c r="H17">
+        <v>2.977687</v>
+      </c>
+      <c r="I17">
+        <v>0.0478190809838148</v>
+      </c>
+      <c r="J17">
+        <v>0.04781908098381479</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.743817</v>
+      </c>
+      <c r="N17">
+        <v>2.231451</v>
+      </c>
+      <c r="O17">
+        <v>0.6787766238980854</v>
+      </c>
+      <c r="P17">
+        <v>0.6787766238980855</v>
+      </c>
+      <c r="Q17">
+        <v>0.7382847370929999</v>
+      </c>
+      <c r="R17">
+        <v>6.644562633836999</v>
+      </c>
+      <c r="S17">
+        <v>0.03245847434810294</v>
+      </c>
+      <c r="T17">
+        <v>0.03245847434810294</v>
       </c>
     </row>
   </sheetData>
